--- a/src/main/resources/Book2.xlsx
+++ b/src/main/resources/Book2.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12450" windowHeight="4125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="6540"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="email" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="email" sheetId="2" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId2"/>
+    <sheet name="profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ninu</t>
   </si>
 </sst>
 </file>
@@ -378,6 +384,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -408,45 +448,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>